--- a/Reponse-appel-offre/Macro-planning.xlsx
+++ b/Reponse-appel-offre/Macro-planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://efrei365net-my.sharepoint.com/personal/romain_pasquier_efrei_net/Documents/Ecole/EFREI/Master camp/Solution factory/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romainpasquier/PhpstormProjects/MasterCamp/Reponse-appel-offre/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{35A5B8F7-1A33-4D97-BB7C-07F62072712C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DA65049-3CE5-4D49-9938-70311E4724E8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE519E7-16E2-7746-97AA-C0EF647099C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20520" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Votre projet" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
   </sheets>
   <definedNames>
     <definedName name="ouinon">Table!$D$1:$D$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Votre projet'!$A$1:$AH$54</definedName>
     <definedName name="semaine">Table!$A$1:$B$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Votre projet'!$A$1:$AH$54</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Détails du projet</t>
   </si>
@@ -155,16 +155,20 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>’</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;€&quot;#,##0.00;[Red]\-&quot;€&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="[$-40C]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,7 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -440,6 +444,12 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -467,16 +477,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -587,13 +592,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>41</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:colOff>482600</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>127000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -957,78 +962,78 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH98"/>
+  <dimension ref="A1:AI98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="144" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI18" sqref="AI18"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="6.5" style="15" customWidth="1"/>
     <col min="7" max="7" width="9" style="10" hidden="1" customWidth="1"/>
-    <col min="8" max="34" width="2.5703125" style="1" customWidth="1"/>
+    <col min="8" max="34" width="2.5" style="1" customWidth="1"/>
     <col min="35" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="G1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="12">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:34" ht="12" x14ac:dyDescent="0.15">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="34" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
       <c r="G2" s="2">
         <f ca="1">TODAY()</f>
-        <v>44722</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="12">
-      <c r="A3" s="37" t="s">
+        <v>44729</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="12" x14ac:dyDescent="0.15">
+      <c r="A3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:34" ht="10.5" customHeight="1">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
+    <row r="4" spans="1:34" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="40"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="22"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:34" ht="12">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:34" ht="12" x14ac:dyDescent="0.15">
+      <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="29" t="s">
         <v>6</v>
       </c>
@@ -1036,11 +1041,11 @@
       <c r="E5" s="27"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:34" ht="12">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:34" ht="12" x14ac:dyDescent="0.15">
+      <c r="A6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="24">
         <v>44721</v>
       </c>
@@ -1048,14 +1053,14 @@
       <c r="E6" s="27"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:34" s="3" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:34" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="14"/>
       <c r="G7" s="11"/>
       <c r="H7" s="4">
@@ -1167,7 +1172,7 @@
         <v>44747</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="6" customFormat="1" ht="28.5" customHeight="1">
+    <row r="8" spans="1:34" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="15"/>
       <c r="G8" s="12"/>
       <c r="H8" s="7" t="str">
@@ -1279,20 +1284,20 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="12.95" customHeight="1">
-      <c r="B9" s="41" t="s">
+    <row r="9" spans="1:34" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="31" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="13"/>
@@ -1405,12 +1410,12 @@
         <v>M</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="12.95" customHeight="1">
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="40"/>
+    <row r="10" spans="1:34" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="31"/>
       <c r="G10" s="13"/>
       <c r="H10" s="8">
         <f>DAY(H7)</f>
@@ -1521,7 +1526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="12.95" customHeight="1">
+    <row r="11" spans="1:34" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17">
         <v>1</v>
       </c>
@@ -1561,7 +1566,7 @@
       <c r="AG11" s="20"/>
       <c r="AH11" s="20"/>
     </row>
-    <row r="12" spans="1:34" ht="12.95" customHeight="1">
+    <row r="12" spans="1:34" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
@@ -1579,11 +1584,11 @@
         <v>44724</v>
       </c>
       <c r="F12" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="16">
         <f t="shared" ref="G12:G40" si="7">C12+F12*(E12-C12)</f>
-        <v>44721</v>
+        <v>44724</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1612,7 +1617,7 @@
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
     </row>
-    <row r="13" spans="1:34" ht="12.95" customHeight="1">
+    <row r="13" spans="1:34" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -1630,11 +1635,11 @@
         <v>44728</v>
       </c>
       <c r="F13" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="16">
         <f t="shared" si="7"/>
-        <v>44725</v>
+        <v>44728</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1663,7 +1668,7 @@
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
     </row>
-    <row r="14" spans="1:34" ht="12.95" customHeight="1">
+    <row r="14" spans="1:34" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
@@ -1681,14 +1686,14 @@
         <v>44729</v>
       </c>
       <c r="F14" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="16">
         <f t="shared" si="7"/>
-        <v>44725</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" ht="12.95" customHeight="1">
+        <v>44729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
@@ -1706,14 +1711,14 @@
         <v>44729</v>
       </c>
       <c r="F15" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="16">
         <f t="shared" si="7"/>
-        <v>44725</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" ht="12.95" customHeight="1">
+        <v>44729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>22</v>
       </c>
@@ -1731,14 +1736,14 @@
         <v>44731</v>
       </c>
       <c r="F16" s="15">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G16" s="16">
         <f t="shared" si="7"/>
-        <v>44729</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="12.95" customHeight="1">
+        <v>44730.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
@@ -1763,7 +1768,7 @@
         <v>44731</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="12.95" customHeight="1">
+    <row r="18" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
@@ -1788,7 +1793,7 @@
         <v>44731</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.95" customHeight="1">
+    <row r="19" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>28</v>
       </c>
@@ -1813,7 +1818,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.95" customHeight="1">
+    <row r="20" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
@@ -1838,7 +1843,7 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="12.95" customHeight="1">
+    <row r="21" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="30"/>
       <c r="D21" s="9"/>
       <c r="E21" s="28" t="str">
@@ -1849,8 +1854,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="12.95" customHeight="1">
+      <c r="AI21" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="30"/>
       <c r="D22" s="9"/>
       <c r="E22" s="28" t="str">
@@ -1862,7 +1870,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="12.95" customHeight="1">
+    <row r="23" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="30"/>
       <c r="D23" s="9"/>
       <c r="E23" s="28" t="str">
@@ -1874,7 +1882,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.95" customHeight="1">
+    <row r="24" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="30"/>
       <c r="D24" s="9"/>
       <c r="E24" s="28" t="str">
@@ -1886,7 +1894,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.95" customHeight="1">
+    <row r="25" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="30"/>
       <c r="D25" s="9"/>
       <c r="E25" s="28" t="str">
@@ -1898,7 +1906,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.95" customHeight="1">
+    <row r="26" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="30"/>
       <c r="D26" s="9"/>
       <c r="E26" s="28" t="str">
@@ -1910,7 +1918,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.95" customHeight="1">
+    <row r="27" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="30"/>
       <c r="D27" s="9"/>
       <c r="E27" s="28" t="str">
@@ -1922,7 +1930,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12.95" customHeight="1">
+    <row r="28" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="30"/>
       <c r="D28" s="9"/>
       <c r="E28" s="28" t="str">
@@ -1934,7 +1942,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.95" customHeight="1">
+    <row r="29" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="30"/>
       <c r="D29" s="9"/>
       <c r="E29" s="28" t="str">
@@ -1946,7 +1954,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="12.95" customHeight="1">
+    <row r="30" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="30"/>
       <c r="D30" s="9"/>
       <c r="E30" s="28" t="str">
@@ -1958,7 +1966,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="12.95" customHeight="1">
+    <row r="31" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="30"/>
       <c r="D31" s="9"/>
       <c r="E31" s="28" t="str">
@@ -1970,7 +1978,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="12.95" customHeight="1">
+    <row r="32" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="30"/>
       <c r="D32" s="9"/>
       <c r="E32" s="28" t="str">
@@ -1982,7 +1990,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="3:7" ht="12.95" customHeight="1">
+    <row r="33" spans="3:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="30"/>
       <c r="D33" s="9"/>
       <c r="E33" s="28" t="str">
@@ -1994,7 +2002,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="34" spans="3:7" ht="12.95" customHeight="1">
+    <row r="34" spans="3:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="30"/>
       <c r="D34" s="9"/>
       <c r="E34" s="28" t="str">
@@ -2006,7 +2014,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="3:7" ht="12.95" customHeight="1">
+    <row r="35" spans="3:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="30"/>
       <c r="D35" s="9"/>
       <c r="E35" s="28" t="str">
@@ -2018,7 +2026,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="36" spans="3:7" ht="12.95" customHeight="1">
+    <row r="36" spans="3:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="30"/>
       <c r="D36" s="9"/>
       <c r="E36" s="28" t="str">
@@ -2030,7 +2038,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="3:7" ht="12.95" customHeight="1">
+    <row r="37" spans="3:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="30"/>
       <c r="D37" s="9"/>
       <c r="E37" s="28" t="str">
@@ -2042,7 +2050,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="3:7" ht="12.95" customHeight="1">
+    <row r="38" spans="3:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="30"/>
       <c r="D38" s="9"/>
       <c r="E38" s="28" t="str">
@@ -2054,7 +2062,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="3:7" ht="12.95" customHeight="1">
+    <row r="39" spans="3:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="30"/>
       <c r="D39" s="9"/>
       <c r="E39" s="28" t="str">
@@ -2066,7 +2074,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="40" spans="3:7" ht="12.95" customHeight="1">
+    <row r="40" spans="3:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="30"/>
       <c r="D40" s="9"/>
       <c r="E40" s="28" t="str">
@@ -2078,349 +2086,349 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="41" spans="3:7" ht="12.95" customHeight="1">
+    <row r="41" spans="3:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E41" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="3:7" ht="12.95" customHeight="1">
+    <row r="42" spans="3:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E42" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="3:7" ht="12.95" customHeight="1">
+    <row r="43" spans="3:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E43" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="3:7" ht="12.95" customHeight="1">
+    <row r="44" spans="3:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E44" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="3:7" ht="12.95" customHeight="1">
+    <row r="45" spans="3:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E45" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="3:7" ht="12.95" customHeight="1">
+    <row r="46" spans="3:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E46" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="3:7" ht="12.95" customHeight="1">
+    <row r="47" spans="3:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E47" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="3:7" ht="12.95" customHeight="1">
+    <row r="48" spans="3:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E48" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="5:5" ht="12.95" customHeight="1">
+    <row r="49" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E49" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="5:5" ht="12.95" customHeight="1">
+    <row r="50" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E50" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="5:5" ht="12.95" customHeight="1">
+    <row r="51" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E51" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="5:5" ht="12.95" customHeight="1">
+    <row r="52" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E52" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="5:5" ht="12.95" customHeight="1">
+    <row r="53" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E53" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="5:5" ht="12.95" customHeight="1">
+    <row r="54" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E54" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="5:5" ht="12.95" customHeight="1">
+    <row r="55" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E55" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="5:5" ht="12.95" customHeight="1">
+    <row r="56" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E56" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="5:5" ht="12.95" customHeight="1">
+    <row r="57" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E57" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="5:5" ht="12.95" customHeight="1">
+    <row r="58" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="5:5" ht="12.95" customHeight="1">
+    <row r="59" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E59" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="5:5" ht="12.95" customHeight="1">
+    <row r="60" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E60" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="5:5" ht="12.95" customHeight="1">
+    <row r="61" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E61" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="5:5" ht="12.95" customHeight="1">
+    <row r="62" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E62" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="5:5" ht="12.95" customHeight="1">
+    <row r="63" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="5:5" ht="12.95" customHeight="1">
+    <row r="64" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E64" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="5:5" ht="12.95" customHeight="1">
+    <row r="65" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="5:5" ht="12.95" customHeight="1">
+    <row r="66" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E66" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="5:5" ht="12.95" customHeight="1">
+    <row r="67" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E67" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="5:5" ht="12.95" customHeight="1">
+    <row r="68" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E68" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="5:5" ht="12.95" customHeight="1">
+    <row r="69" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E69" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="5:5" ht="12.95" customHeight="1">
+    <row r="70" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E70" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="5:5" ht="12.95" customHeight="1">
+    <row r="71" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E71" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="5:5" ht="12.95" customHeight="1">
+    <row r="72" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E72" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="5:5" ht="12.95" customHeight="1">
+    <row r="73" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E73" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="5:5" ht="12.95" customHeight="1">
+    <row r="74" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E74" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="5:5" ht="12.95" customHeight="1">
+    <row r="75" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E75" s="28" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="5:5" ht="12.95" customHeight="1">
+    <row r="76" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E76" s="28" t="str">
         <f t="shared" ref="E76:E98" si="9">IF(B76="","",IF($C$5="OUI",WORKDAY(C76,IF(WEEKDAY(C76,2)&gt;=6,D76,D76-1)),C76+D76-1))</f>
         <v/>
       </c>
     </row>
-    <row r="77" spans="5:5" ht="12.95" customHeight="1">
+    <row r="77" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E77" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="5:5" ht="12.95" customHeight="1">
+    <row r="78" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E78" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="5:5" ht="12.95" customHeight="1">
+    <row r="79" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E79" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="5:5" ht="12.95" customHeight="1">
+    <row r="80" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E80" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="5:5" ht="12.95" customHeight="1">
+    <row r="81" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E81" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="5:5" ht="12.95" customHeight="1">
+    <row r="82" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E82" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="5:5" ht="12.95" customHeight="1">
+    <row r="83" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E83" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="5:5" ht="12.95" customHeight="1">
+    <row r="84" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E84" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="5:5" ht="12.95" customHeight="1">
+    <row r="85" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E85" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="5:5" ht="12.95" customHeight="1">
+    <row r="86" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E86" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="5:5" ht="12.95" customHeight="1">
+    <row r="87" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E87" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="5:5" ht="12.95" customHeight="1">
+    <row r="88" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E88" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="5:5" ht="12.95" customHeight="1">
+    <row r="89" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E89" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="5:5" ht="12.95" customHeight="1">
+    <row r="90" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E90" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="5:5" ht="12.95" customHeight="1">
+    <row r="91" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E91" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="5:5" ht="12.95" customHeight="1">
+    <row r="92" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E92" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="5:5">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E93" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="5:5">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E94" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="5:5">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E95" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="5:5">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E96" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="5:5">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E97" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="5:5">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E98" s="28" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -2428,11 +2436,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C2:E2"/>
@@ -2442,6 +2445,11 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:AH8">
     <cfRule type="expression" dxfId="8" priority="12">
@@ -2503,13 +2511,13 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>41</xdr:col>
-                    <xdr:colOff>485775</xdr:colOff>
+                    <xdr:colOff>482600</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>127000</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2528,15 +2536,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2547,7 +2555,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2558,7 +2566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2566,7 +2574,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2574,7 +2582,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2582,7 +2590,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2590,7 +2598,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -2604,6 +2612,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b77de7d0-dd41-47ef-864a-ef89e53446d1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7d684a28-ca2c-49ae-9c17-671fbe8cbec0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F260FF8688AB5D4FA38BC59D128BAA5D" ma:contentTypeVersion="10" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="e38acdcbce08faf09eb9c97b9601f6f0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b77de7d0-dd41-47ef-864a-ef89e53446d1" xmlns:ns3="7d684a28-ca2c-49ae-9c17-671fbe8cbec0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="043768d237c07e1330d37e055f949481" ns2:_="" ns3:_="">
     <xsd:import namespace="b77de7d0-dd41-47ef-864a-ef89e53446d1"/>
@@ -2792,34 +2820,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b77de7d0-dd41-47ef-864a-ef89e53446d1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7d684a28-ca2c-49ae-9c17-671fbe8cbec0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BD25C60-5194-42BD-B3B7-33D7D498FF44}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AD40320-3ADC-4F6F-AC77-69E654FA80F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b77de7d0-dd41-47ef-864a-ef89e53446d1"/>
+    <ds:schemaRef ds:uri="7d684a28-ca2c-49ae-9c17-671fbe8cbec0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{137FA1DB-8DA8-485D-B6B6-1AE808D7449C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{137FA1DB-8DA8-485D-B6B6-1AE808D7449C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AD40320-3ADC-4F6F-AC77-69E654FA80F1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BD25C60-5194-42BD-B3B7-33D7D498FF44}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b77de7d0-dd41-47ef-864a-ef89e53446d1"/>
+    <ds:schemaRef ds:uri="7d684a28-ca2c-49ae-9c17-671fbe8cbec0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Reponse-appel-offre/Macro-planning.xlsx
+++ b/Reponse-appel-offre/Macro-planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romainpasquier/PhpstormProjects/MasterCamp/Reponse-appel-offre/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE519E7-16E2-7746-97AA-C0EF647099C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038FD4F1-13C4-8748-965B-404276FC853B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20520" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20380" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Votre projet" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>Détails du projet</t>
   </si>
@@ -158,6 +158,30 @@
   </si>
   <si>
     <t>’</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>Implementation backend beta</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>Implementation Frontend beta</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>Réflechir aux questions de confiance et de sécurité</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>Réfléchir au déploiement de l'app</t>
   </si>
 </sst>
 </file>
@@ -444,40 +468,40 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -966,7 +990,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="144" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -983,57 +1007,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="G1" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="36" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
       <c r="G2" s="2">
         <f ca="1">TODAY()</f>
-        <v>44729</v>
+        <v>44731</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:34" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="22"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="29" t="s">
         <v>6</v>
       </c>
@@ -1042,10 +1066,10 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="24">
         <v>44721</v>
       </c>
@@ -1054,13 +1078,13 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:34" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="14"/>
       <c r="G7" s="11"/>
       <c r="H7" s="4">
@@ -1285,19 +1309,19 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="41" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="13"/>
@@ -1411,11 +1435,11 @@
       </c>
     </row>
     <row r="10" spans="1:34" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="31"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="13"/>
       <c r="H10" s="8">
         <f>DAY(H7)</f>
@@ -1736,11 +1760,11 @@
         <v>44731</v>
       </c>
       <c r="F16" s="15">
-        <v>0.8</v>
+        <v>100</v>
       </c>
       <c r="G16" s="16">
         <f t="shared" si="7"/>
-        <v>44730.6</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -1757,14 +1781,14 @@
         <v>10</v>
       </c>
       <c r="E17" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(B17="","",IF($C$5="OUI",WORKDAY(C17,IF(WEEKDAY(C17,2)&gt;=6,D17,D17-1)),C17+D17-1))</f>
         <v>44740</v>
       </c>
       <c r="F17" s="15">
         <v>0</v>
       </c>
       <c r="G17" s="16">
-        <f t="shared" si="7"/>
+        <f>C17+F17*(E17-C17)</f>
         <v>44731</v>
       </c>
     </row>
@@ -1782,14 +1806,14 @@
         <v>10</v>
       </c>
       <c r="E18" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(B18="","",IF($C$5="OUI",WORKDAY(C18,IF(WEEKDAY(C18,2)&gt;=6,D18,D18-1)),C18+D18-1))</f>
         <v>44740</v>
       </c>
       <c r="F18" s="15">
         <v>0</v>
       </c>
       <c r="G18" s="16">
-        <f t="shared" si="7"/>
+        <f>C18+F18*(E18-C18)</f>
         <v>44731</v>
       </c>
     </row>
@@ -1807,14 +1831,14 @@
         <v>4</v>
       </c>
       <c r="E19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(B19="","",IF($C$5="OUI",WORKDAY(C19,IF(WEEKDAY(C19,2)&gt;=6,D19,D19-1)),C19+D19-1))</f>
         <v>44743</v>
       </c>
       <c r="F19" s="15">
         <v>0</v>
       </c>
       <c r="G19" s="16">
-        <f t="shared" si="7"/>
+        <f>C19+F19*(E19-C19)</f>
         <v>44740</v>
       </c>
     </row>
@@ -1832,14 +1856,14 @@
         <v>4</v>
       </c>
       <c r="E20" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(B20="","",IF($C$5="OUI",WORKDAY(C20,IF(WEEKDAY(C20,2)&gt;=6,D20,D20-1)),C20+D20-1))</f>
         <v>44746</v>
       </c>
       <c r="F20" s="15">
         <v>0</v>
       </c>
       <c r="G20" s="16">
-        <f t="shared" si="7"/>
+        <f>C20+F20*(E20-C20)</f>
         <v>44743</v>
       </c>
     </row>
@@ -1851,59 +1875,111 @@
         <v/>
       </c>
       <c r="G21" s="16" t="e">
+        <f>C21+F21*(E21-C21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI21" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="30">
+        <v>44732</v>
+      </c>
+      <c r="D22" s="9">
+        <v>3</v>
+      </c>
+      <c r="E22" s="28">
+        <f t="shared" si="8"/>
+        <v>44734</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="16">
+        <f>C22+F22*(E22-C22)</f>
+        <v>44732</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="30">
+        <v>44732</v>
+      </c>
+      <c r="D23" s="9">
+        <v>3</v>
+      </c>
+      <c r="E23" s="28">
+        <f t="shared" ref="E23" si="9">IF(B23="","",IF($C$5="OUI",WORKDAY(C23,IF(WEEKDAY(C23,2)&gt;=6,D23,D23-1)),C23+D23-1))</f>
+        <v>44734</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="16">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI21" s="42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="30"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="28" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G22" s="16" t="e">
+        <v>44732</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="30">
+        <v>44732</v>
+      </c>
+      <c r="D24" s="9">
+        <v>3</v>
+      </c>
+      <c r="E24" s="28">
+        <f t="shared" si="8"/>
+        <v>44734</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="16">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="30"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="28" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G23" s="16" t="e">
+        <v>44732</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="30">
+        <v>44732</v>
+      </c>
+      <c r="D25" s="9">
+        <v>7</v>
+      </c>
+      <c r="E25" s="28">
+        <f t="shared" si="8"/>
+        <v>44738</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="16">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="30"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="28" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G24" s="16" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="30"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="28" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G25" s="16" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -2298,144 +2374,149 @@
     </row>
     <row r="76" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E76" s="28" t="str">
-        <f t="shared" ref="E76:E98" si="9">IF(B76="","",IF($C$5="OUI",WORKDAY(C76,IF(WEEKDAY(C76,2)&gt;=6,D76,D76-1)),C76+D76-1))</f>
+        <f t="shared" ref="E76:E98" si="10">IF(B76="","",IF($C$5="OUI",WORKDAY(C76,IF(WEEKDAY(C76,2)&gt;=6,D76,D76-1)),C76+D76-1))</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E77" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E78" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E79" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E80" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E81" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E82" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E83" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E84" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E85" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E86" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E87" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E88" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E89" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E90" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E91" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E92" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E93" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E94" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E95" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E96" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E97" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E98" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C2:E2"/>
@@ -2445,11 +2526,6 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:AH8">
     <cfRule type="expression" dxfId="8" priority="12">
@@ -2612,26 +2688,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b77de7d0-dd41-47ef-864a-ef89e53446d1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7d684a28-ca2c-49ae-9c17-671fbe8cbec0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F260FF8688AB5D4FA38BC59D128BAA5D" ma:contentTypeVersion="10" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="e38acdcbce08faf09eb9c97b9601f6f0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b77de7d0-dd41-47ef-864a-ef89e53446d1" xmlns:ns3="7d684a28-ca2c-49ae-9c17-671fbe8cbec0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="043768d237c07e1330d37e055f949481" ns2:_="" ns3:_="">
     <xsd:import namespace="b77de7d0-dd41-47ef-864a-ef89e53446d1"/>
@@ -2820,26 +2876,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AD40320-3ADC-4F6F-AC77-69E654FA80F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b77de7d0-dd41-47ef-864a-ef89e53446d1"/>
-    <ds:schemaRef ds:uri="7d684a28-ca2c-49ae-9c17-671fbe8cbec0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{137FA1DB-8DA8-485D-B6B6-1AE808D7449C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b77de7d0-dd41-47ef-864a-ef89e53446d1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7d684a28-ca2c-49ae-9c17-671fbe8cbec0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BD25C60-5194-42BD-B3B7-33D7D498FF44}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2856,4 +2913,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{137FA1DB-8DA8-485D-B6B6-1AE808D7449C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AD40320-3ADC-4F6F-AC77-69E654FA80F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b77de7d0-dd41-47ef-864a-ef89e53446d1"/>
+    <ds:schemaRef ds:uri="7d684a28-ca2c-49ae-9c17-671fbe8cbec0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Reponse-appel-offre/Macro-planning.xlsx
+++ b/Reponse-appel-offre/Macro-planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romainpasquier/PhpstormProjects/MasterCamp/Reponse-appel-offre/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038FD4F1-13C4-8748-965B-404276FC853B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB28561-23DC-4949-9FD8-AA98EEDB924A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20380" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,6 +469,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -495,12 +501,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -990,7 +990,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="144" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -1007,57 +1007,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="G1" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
       <c r="G2" s="2">
         <f ca="1">TODAY()</f>
         <v>44731</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:34" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="22"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="29" t="s">
         <v>6</v>
       </c>
@@ -1066,10 +1066,10 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="24">
         <v>44721</v>
       </c>
@@ -1078,13 +1078,13 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:34" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="14"/>
       <c r="G7" s="11"/>
       <c r="H7" s="4">
@@ -1309,19 +1309,19 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="32" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="13"/>
@@ -1435,11 +1435,11 @@
       </c>
     </row>
     <row r="10" spans="1:34" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="41"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="13"/>
       <c r="H10" s="8">
         <f>DAY(H7)</f>
@@ -1760,11 +1760,11 @@
         <v>44731</v>
       </c>
       <c r="F16" s="15">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G16" s="16">
         <f t="shared" si="7"/>
-        <v>44929</v>
+        <v>44731</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="16">
-        <f>C17+F17*(E17-C17)</f>
+        <f t="shared" ref="G17:G22" si="9">C17+F17*(E17-C17)</f>
         <v>44731</v>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="16">
-        <f>C18+F18*(E18-C18)</f>
+        <f t="shared" si="9"/>
         <v>44731</v>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="16">
-        <f>C19+F19*(E19-C19)</f>
+        <f t="shared" si="9"/>
         <v>44740</v>
       </c>
     </row>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="16">
-        <f>C20+F20*(E20-C20)</f>
+        <f t="shared" si="9"/>
         <v>44743</v>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
         <v/>
       </c>
       <c r="G21" s="16" t="e">
-        <f>C21+F21*(E21-C21)</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AI21" s="31" t="s">
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="16">
-        <f>C22+F22*(E22-C22)</f>
+        <f t="shared" si="9"/>
         <v>44732</v>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="28">
-        <f t="shared" ref="E23" si="9">IF(B23="","",IF($C$5="OUI",WORKDAY(C23,IF(WEEKDAY(C23,2)&gt;=6,D23,D23-1)),C23+D23-1))</f>
+        <f t="shared" ref="E23" si="10">IF(B23="","",IF($C$5="OUI",WORKDAY(C23,IF(WEEKDAY(C23,2)&gt;=6,D23,D23-1)),C23+D23-1))</f>
         <v>44734</v>
       </c>
       <c r="F23" s="15">
@@ -2374,149 +2374,144 @@
     </row>
     <row r="76" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E76" s="28" t="str">
-        <f t="shared" ref="E76:E98" si="10">IF(B76="","",IF($C$5="OUI",WORKDAY(C76,IF(WEEKDAY(C76,2)&gt;=6,D76,D76-1)),C76+D76-1))</f>
+        <f t="shared" ref="E76:E98" si="11">IF(B76="","",IF($C$5="OUI",WORKDAY(C76,IF(WEEKDAY(C76,2)&gt;=6,D76,D76-1)),C76+D76-1))</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E77" s="28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E78" s="28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E79" s="28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E80" s="28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E81" s="28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E82" s="28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E83" s="28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E84" s="28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E85" s="28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E86" s="28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E87" s="28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E88" s="28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E89" s="28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E90" s="28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E91" s="28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="5:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E92" s="28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E93" s="28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E94" s="28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E95" s="28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E96" s="28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E97" s="28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E98" s="28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C2:E2"/>
@@ -2526,6 +2521,11 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:AH8">
     <cfRule type="expression" dxfId="8" priority="12">
@@ -2688,6 +2688,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F260FF8688AB5D4FA38BC59D128BAA5D" ma:contentTypeVersion="10" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="e38acdcbce08faf09eb9c97b9601f6f0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b77de7d0-dd41-47ef-864a-ef89e53446d1" xmlns:ns3="7d684a28-ca2c-49ae-9c17-671fbe8cbec0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="043768d237c07e1330d37e055f949481" ns2:_="" ns3:_="">
     <xsd:import namespace="b77de7d0-dd41-47ef-864a-ef89e53446d1"/>
@@ -2876,15 +2885,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2897,6 +2897,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{137FA1DB-8DA8-485D-B6B6-1AE808D7449C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BD25C60-5194-42BD-B3B7-33D7D498FF44}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2915,14 +2923,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{137FA1DB-8DA8-485D-B6B6-1AE808D7449C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AD40320-3ADC-4F6F-AC77-69E654FA80F1}">
   <ds:schemaRefs>

--- a/Reponse-appel-offre/Macro-planning.xlsx
+++ b/Reponse-appel-offre/Macro-planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romainpasquier/PhpstormProjects/MasterCamp/Reponse-appel-offre/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB28561-23DC-4949-9FD8-AA98EEDB924A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26A9796-B4AF-D949-8EDC-54933CCA2555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20380" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,38 +469,38 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -990,7 +990,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="144" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -1007,57 +1007,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="G1" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
       <c r="G2" s="2">
         <f ca="1">TODAY()</f>
-        <v>44731</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="37" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:34" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="22"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="29" t="s">
         <v>6</v>
       </c>
@@ -1066,10 +1066,10 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="24">
         <v>44721</v>
       </c>
@@ -1078,13 +1078,13 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:34" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="14"/>
       <c r="G7" s="11"/>
       <c r="H7" s="4">
@@ -1309,19 +1309,19 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="41" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="13"/>
@@ -1435,11 +1435,11 @@
       </c>
     </row>
     <row r="10" spans="1:34" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="32"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="13"/>
       <c r="H10" s="8">
         <f>DAY(H7)</f>
@@ -1785,11 +1785,11 @@
         <v>44740</v>
       </c>
       <c r="F17" s="15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G17" s="16">
         <f t="shared" ref="G17:G22" si="9">C17+F17*(E17-C17)</f>
-        <v>44731</v>
+        <v>44731.9</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -1810,11 +1810,11 @@
         <v>44740</v>
       </c>
       <c r="F18" s="15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G18" s="16">
         <f t="shared" si="9"/>
-        <v>44731</v>
+        <v>44731.9</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -1893,18 +1893,18 @@
         <v>44732</v>
       </c>
       <c r="D22" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22" s="28">
         <f t="shared" si="8"/>
-        <v>44734</v>
+        <v>44735</v>
       </c>
       <c r="F22" s="15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G22" s="16">
         <f t="shared" si="9"/>
-        <v>44732</v>
+        <v>44732.6</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -1918,18 +1918,18 @@
         <v>44732</v>
       </c>
       <c r="D23" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" s="28">
         <f t="shared" ref="E23" si="10">IF(B23="","",IF($C$5="OUI",WORKDAY(C23,IF(WEEKDAY(C23,2)&gt;=6,D23,D23-1)),C23+D23-1))</f>
-        <v>44734</v>
+        <v>44735</v>
       </c>
       <c r="F23" s="15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G23" s="16">
         <f t="shared" si="7"/>
-        <v>44732</v>
+        <v>44732.3</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -2512,6 +2512,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C2:E2"/>
@@ -2521,11 +2526,6 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:AH8">
     <cfRule type="expression" dxfId="8" priority="12">
@@ -2688,12 +2688,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b77de7d0-dd41-47ef-864a-ef89e53446d1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7d684a28-ca2c-49ae-9c17-671fbe8cbec0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2886,20 +2888,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b77de7d0-dd41-47ef-864a-ef89e53446d1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7d684a28-ca2c-49ae-9c17-671fbe8cbec0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{137FA1DB-8DA8-485D-B6B6-1AE808D7449C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AD40320-3ADC-4F6F-AC77-69E654FA80F1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b77de7d0-dd41-47ef-864a-ef89e53446d1"/>
+    <ds:schemaRef ds:uri="7d684a28-ca2c-49ae-9c17-671fbe8cbec0"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2924,12 +2927,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AD40320-3ADC-4F6F-AC77-69E654FA80F1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{137FA1DB-8DA8-485D-B6B6-1AE808D7449C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b77de7d0-dd41-47ef-864a-ef89e53446d1"/>
-    <ds:schemaRef ds:uri="7d684a28-ca2c-49ae-9c17-671fbe8cbec0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Reponse-appel-offre/Macro-planning.xlsx
+++ b/Reponse-appel-offre/Macro-planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romainpasquier/PhpstormProjects/MasterCamp/Reponse-appel-offre/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26A9796-B4AF-D949-8EDC-54933CCA2555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356411C7-FEE7-484E-96D4-4FDC41BAECA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20380" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20240" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Votre projet" sheetId="1" r:id="rId1"/>
@@ -469,6 +469,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -495,12 +501,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -990,7 +990,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="144" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z15" sqref="Z15"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -1007,57 +1007,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="G1" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
       <c r="G2" s="2">
         <f ca="1">TODAY()</f>
-        <v>44732</v>
+        <v>44744</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:34" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="22"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="29" t="s">
         <v>6</v>
       </c>
@@ -1066,10 +1066,10 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:34" ht="12" x14ac:dyDescent="0.15">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="24">
         <v>44721</v>
       </c>
@@ -1078,13 +1078,13 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:34" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="14"/>
       <c r="G7" s="11"/>
       <c r="H7" s="4">
@@ -1309,19 +1309,19 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="32" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="13"/>
@@ -1435,11 +1435,11 @@
       </c>
     </row>
     <row r="10" spans="1:34" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="41"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="13"/>
       <c r="H10" s="8">
         <f>DAY(H7)</f>
@@ -1785,11 +1785,11 @@
         <v>44740</v>
       </c>
       <c r="F17" s="15">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="G17" s="16">
         <f t="shared" ref="G17:G22" si="9">C17+F17*(E17-C17)</f>
-        <v>44731.9</v>
+        <v>44739.1</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -1810,11 +1810,11 @@
         <v>44740</v>
       </c>
       <c r="F18" s="15">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="G18" s="16">
         <f t="shared" si="9"/>
-        <v>44731.9</v>
+        <v>44737.75</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -1835,11 +1835,11 @@
         <v>44743</v>
       </c>
       <c r="F19" s="15">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G19" s="16">
         <f t="shared" si="9"/>
-        <v>44740</v>
+        <v>44742.1</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -1900,11 +1900,11 @@
         <v>44735</v>
       </c>
       <c r="F22" s="15">
-        <v>0.2</v>
+        <v>0.95</v>
       </c>
       <c r="G22" s="16">
         <f t="shared" si="9"/>
-        <v>44732.6</v>
+        <v>44734.85</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -1925,11 +1925,11 @@
         <v>44735</v>
       </c>
       <c r="F23" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="G23" s="16">
         <f t="shared" si="7"/>
-        <v>44732.3</v>
+        <v>44734.400000000001</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -1950,11 +1950,11 @@
         <v>44734</v>
       </c>
       <c r="F24" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="16">
         <f t="shared" si="7"/>
-        <v>44732</v>
+        <v>44734</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -2512,11 +2512,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C2:E2"/>
@@ -2526,6 +2521,11 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:AH8">
     <cfRule type="expression" dxfId="8" priority="12">
@@ -2688,14 +2688,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b77de7d0-dd41-47ef-864a-ef89e53446d1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7d684a28-ca2c-49ae-9c17-671fbe8cbec0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2888,21 +2886,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b77de7d0-dd41-47ef-864a-ef89e53446d1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7d684a28-ca2c-49ae-9c17-671fbe8cbec0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AD40320-3ADC-4F6F-AC77-69E654FA80F1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{137FA1DB-8DA8-485D-B6B6-1AE808D7449C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b77de7d0-dd41-47ef-864a-ef89e53446d1"/>
-    <ds:schemaRef ds:uri="7d684a28-ca2c-49ae-9c17-671fbe8cbec0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2927,9 +2924,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{137FA1DB-8DA8-485D-B6B6-1AE808D7449C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AD40320-3ADC-4F6F-AC77-69E654FA80F1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b77de7d0-dd41-47ef-864a-ef89e53446d1"/>
+    <ds:schemaRef ds:uri="7d684a28-ca2c-49ae-9c17-671fbe8cbec0"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>